--- a/Apps/YouTubeAnalysis/VideoInfo.xlsx
+++ b/Apps/YouTubeAnalysis/VideoInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90519252e6cee824/Documents/YouTube/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabApplications\Apps\YouTubeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="11_F25DC773A252ABDACC1048DA019B45145ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BFB8B34-1317-4379-812E-0BBA81759B0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18F113-65E9-4C81-954A-08EA7DC1C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="735" windowWidth="15000" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$325</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="992">
   <si>
     <t>Content</t>
   </si>
@@ -2052,9 +2063,6 @@
     <t>Biking</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>VideoDuration</t>
   </si>
   <si>
@@ -2995,6 +3003,18 @@
   </si>
   <si>
     <t>0:43</t>
+  </si>
+  <si>
+    <t>Classification1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Classification2</t>
   </si>
 </sst>
 </file>
@@ -3313,22 +3333,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3336,13 +3356,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3352,11 +3375,14 @@
       <c r="C2" t="s">
         <v>650</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>989</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3366,11 +3392,14 @@
       <c r="C3" t="s">
         <v>651</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3380,11 +3409,14 @@
       <c r="C4" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3394,11 +3426,14 @@
       <c r="C5" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>990</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3408,11 +3443,14 @@
       <c r="C6" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>990</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3422,11 +3460,14 @@
       <c r="C7" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>989</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3436,11 +3477,14 @@
       <c r="C8" t="s">
         <v>651</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>989</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3450,11 +3494,14 @@
       <c r="C9" t="s">
         <v>652</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>990</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3464,11 +3511,14 @@
       <c r="C10" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>990</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3478,11 +3528,14 @@
       <c r="C11" t="s">
         <v>653</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>990</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3492,11 +3545,14 @@
       <c r="C12" t="s">
         <v>659</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>990</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3506,11 +3562,14 @@
       <c r="C13" t="s">
         <v>655</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>990</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3520,11 +3579,14 @@
       <c r="C14" t="s">
         <v>650</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>989</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3534,11 +3596,14 @@
       <c r="C15" t="s">
         <v>651</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>989</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3548,11 +3613,14 @@
       <c r="C16" t="s">
         <v>650</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>989</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3562,11 +3630,14 @@
       <c r="C17" t="s">
         <v>652</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>990</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3576,11 +3647,14 @@
       <c r="C18" t="s">
         <v>659</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>990</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3590,11 +3664,14 @@
       <c r="C19" t="s">
         <v>650</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3604,11 +3681,14 @@
       <c r="C20" t="s">
         <v>652</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>990</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3618,11 +3698,14 @@
       <c r="C21" t="s">
         <v>650</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>989</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3632,11 +3715,14 @@
       <c r="C22" t="s">
         <v>661</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>990</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3646,11 +3732,14 @@
       <c r="C23" t="s">
         <v>659</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>990</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3660,11 +3749,14 @@
       <c r="C24" t="s">
         <v>650</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>989</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3674,11 +3766,14 @@
       <c r="C25" t="s">
         <v>653</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>990</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3688,11 +3783,14 @@
       <c r="C26" t="s">
         <v>662</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>990</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3702,11 +3800,14 @@
       <c r="C27" t="s">
         <v>652</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>990</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3716,11 +3817,14 @@
       <c r="C28" t="s">
         <v>663</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>990</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3730,11 +3834,14 @@
       <c r="C29" t="s">
         <v>652</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>990</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3744,11 +3851,14 @@
       <c r="C30" t="s">
         <v>662</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>990</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3758,11 +3868,14 @@
       <c r="C31" t="s">
         <v>662</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>990</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3772,11 +3885,14 @@
       <c r="C32" t="s">
         <v>661</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>990</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3786,11 +3902,14 @@
       <c r="C33" t="s">
         <v>662</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3800,11 +3919,14 @@
       <c r="C34" t="s">
         <v>659</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>990</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3814,11 +3936,14 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>990</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3828,11 +3953,14 @@
       <c r="C36" t="s">
         <v>656</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>990</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3842,11 +3970,14 @@
       <c r="C37" t="s">
         <v>661</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>990</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3856,11 +3987,14 @@
       <c r="C38" t="s">
         <v>650</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>989</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3870,11 +4004,14 @@
       <c r="C39" t="s">
         <v>668</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>989</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3884,11 +4021,14 @@
       <c r="C40" t="s">
         <v>654</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>990</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3898,11 +4038,14 @@
       <c r="C41" t="s">
         <v>654</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>990</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3912,11 +4055,14 @@
       <c r="C42" t="s">
         <v>652</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>990</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3926,11 +4072,14 @@
       <c r="C43" t="s">
         <v>657</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>989</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -3940,11 +4089,14 @@
       <c r="C44" t="s">
         <v>650</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>989</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3954,11 +4106,14 @@
       <c r="C45" t="s">
         <v>655</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>990</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3968,11 +4123,14 @@
       <c r="C46" t="s">
         <v>652</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>990</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3982,11 +4140,14 @@
       <c r="C47" t="s">
         <v>670</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>989</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3996,11 +4157,14 @@
       <c r="C48" t="s">
         <v>662</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>990</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4010,11 +4174,14 @@
       <c r="C49" t="s">
         <v>664</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>990</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -4024,11 +4191,14 @@
       <c r="C50" t="s">
         <v>667</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>990</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -4038,11 +4208,14 @@
       <c r="C51" t="s">
         <v>663</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>990</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4052,11 +4225,14 @@
       <c r="C52" t="s">
         <v>650</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>989</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -4066,11 +4242,14 @@
       <c r="C53" t="s">
         <v>651</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>989</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4080,11 +4259,14 @@
       <c r="C54" t="s">
         <v>657</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>989</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -4094,11 +4276,14 @@
       <c r="C55" t="s">
         <v>652</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>990</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -4108,11 +4293,14 @@
       <c r="C56" t="s">
         <v>650</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>989</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -4122,11 +4310,14 @@
       <c r="C57" t="s">
         <v>655</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>990</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -4136,11 +4327,14 @@
       <c r="C58" t="s">
         <v>650</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>989</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -4150,11 +4344,14 @@
       <c r="C59" t="s">
         <v>665</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>989</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -4164,11 +4361,14 @@
       <c r="C60" t="s">
         <v>663</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>990</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -4178,11 +4378,14 @@
       <c r="C61" t="s">
         <v>663</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>990</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -4192,11 +4395,14 @@
       <c r="C62" t="s">
         <v>659</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>990</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -4206,11 +4412,14 @@
       <c r="C63" t="s">
         <v>651</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>989</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -4220,11 +4429,14 @@
       <c r="C64" t="s">
         <v>657</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>989</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -4234,11 +4446,14 @@
       <c r="C65" t="s">
         <v>662</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>990</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -4248,11 +4463,14 @@
       <c r="C66" t="s">
         <v>650</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>989</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4262,11 +4480,14 @@
       <c r="C67" t="s">
         <v>652</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>990</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -4276,11 +4497,14 @@
       <c r="C68" t="s">
         <v>663</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>990</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -4290,11 +4514,14 @@
       <c r="C69" t="s">
         <v>652</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>990</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -4304,11 +4531,14 @@
       <c r="C70" t="s">
         <v>650</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>989</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -4318,11 +4548,14 @@
       <c r="C71" t="s">
         <v>659</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>990</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -4332,11 +4565,14 @@
       <c r="C72" t="s">
         <v>659</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>990</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -4346,11 +4582,14 @@
       <c r="C73" t="s">
         <v>652</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>990</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -4360,11 +4599,14 @@
       <c r="C74" t="s">
         <v>662</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>990</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -4374,11 +4616,14 @@
       <c r="C75" t="s">
         <v>659</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>990</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -4388,11 +4633,14 @@
       <c r="C76" t="s">
         <v>657</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>989</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -4402,11 +4650,14 @@
       <c r="C77" t="s">
         <v>662</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>990</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -4416,11 +4667,14 @@
       <c r="C78" t="s">
         <v>662</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>990</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -4430,11 +4684,14 @@
       <c r="C79" t="s">
         <v>662</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>990</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4444,11 +4701,14 @@
       <c r="C80" t="s">
         <v>655</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>990</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4458,11 +4718,14 @@
       <c r="C81" t="s">
         <v>662</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>990</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -4472,11 +4735,14 @@
       <c r="C82" t="s">
         <v>654</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>990</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -4486,11 +4752,14 @@
       <c r="C83" t="s">
         <v>653</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>990</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -4500,11 +4769,14 @@
       <c r="C84" t="s">
         <v>663</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>990</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -4514,11 +4786,14 @@
       <c r="C85" t="s">
         <v>654</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>990</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -4528,11 +4803,14 @@
       <c r="C86" t="s">
         <v>662</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>990</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -4542,11 +4820,14 @@
       <c r="C87" t="s">
         <v>653</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>990</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -4556,11 +4837,14 @@
       <c r="C88" t="s">
         <v>659</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>990</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -4570,11 +4854,14 @@
       <c r="C89" t="s">
         <v>668</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>989</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -4584,11 +4871,14 @@
       <c r="C90" t="s">
         <v>652</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>990</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -4598,11 +4888,14 @@
       <c r="C91" t="s">
         <v>651</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>989</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -4612,11 +4905,14 @@
       <c r="C92" t="s">
         <v>651</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>989</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -4626,11 +4922,14 @@
       <c r="C93" t="s">
         <v>650</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>989</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -4640,11 +4939,14 @@
       <c r="C94" t="s">
         <v>663</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>990</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -4654,11 +4956,14 @@
       <c r="C95" t="s">
         <v>650</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>989</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -4668,11 +4973,14 @@
       <c r="C96" t="s">
         <v>659</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>990</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -4682,11 +4990,14 @@
       <c r="C97" t="s">
         <v>659</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>990</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -4696,11 +5007,14 @@
       <c r="C98" t="s">
         <v>653</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>990</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -4710,11 +5024,14 @@
       <c r="C99" t="s">
         <v>662</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>990</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -4724,11 +5041,14 @@
       <c r="C100" t="s">
         <v>664</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>990</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -4738,11 +5058,14 @@
       <c r="C101" t="s">
         <v>652</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>990</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -4752,11 +5075,14 @@
       <c r="C102" t="s">
         <v>650</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>989</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -4766,11 +5092,14 @@
       <c r="C103" t="s">
         <v>654</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>990</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -4780,11 +5109,14 @@
       <c r="C104" t="s">
         <v>663</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>990</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -4794,11 +5126,14 @@
       <c r="C105" t="s">
         <v>663</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>990</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -4808,11 +5143,14 @@
       <c r="C106" t="s">
         <v>666</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>990</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -4822,11 +5160,14 @@
       <c r="C107" t="s">
         <v>659</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>990</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -4836,11 +5177,14 @@
       <c r="C108" t="s">
         <v>650</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>989</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -4850,11 +5194,14 @@
       <c r="C109" t="s">
         <v>666</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>990</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -4864,11 +5211,14 @@
       <c r="C110" t="s">
         <v>662</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>990</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -4878,11 +5228,14 @@
       <c r="C111" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>990</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -4892,11 +5245,14 @@
       <c r="C112" t="s">
         <v>663</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>990</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -4906,11 +5262,14 @@
       <c r="C113" t="s">
         <v>659</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>990</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -4920,11 +5279,14 @@
       <c r="C114" t="s">
         <v>659</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>990</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -4934,11 +5296,14 @@
       <c r="C115" t="s">
         <v>657</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>989</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -4948,11 +5313,14 @@
       <c r="C116" t="s">
         <v>651</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>989</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -4962,11 +5330,14 @@
       <c r="C117" t="s">
         <v>667</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>990</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -4976,11 +5347,14 @@
       <c r="C118" t="s">
         <v>662</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>990</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -4990,11 +5364,14 @@
       <c r="C119" t="s">
         <v>659</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>990</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -5004,11 +5381,14 @@
       <c r="C120" t="s">
         <v>659</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>990</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -5018,11 +5398,14 @@
       <c r="C121" t="s">
         <v>650</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>989</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -5032,11 +5415,14 @@
       <c r="C122" t="s">
         <v>663</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>990</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -5046,11 +5432,14 @@
       <c r="C123" t="s">
         <v>663</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>990</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -5060,11 +5449,14 @@
       <c r="C124" t="s">
         <v>659</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>990</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -5074,11 +5466,14 @@
       <c r="C125" t="s">
         <v>668</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>989</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -5088,11 +5483,14 @@
       <c r="C126" t="s">
         <v>659</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>990</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -5102,11 +5500,14 @@
       <c r="C127" t="s">
         <v>659</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>990</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -5116,11 +5517,14 @@
       <c r="C128" t="s">
         <v>658</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>990</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -5130,11 +5534,14 @@
       <c r="C129" t="s">
         <v>659</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>990</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -5144,11 +5551,14 @@
       <c r="C130" t="s">
         <v>662</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>990</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -5158,11 +5568,14 @@
       <c r="C131" t="s">
         <v>654</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>990</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -5172,11 +5585,14 @@
       <c r="C132" t="s">
         <v>652</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>990</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -5186,11 +5602,14 @@
       <c r="C133" t="s">
         <v>651</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>989</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -5200,11 +5619,14 @@
       <c r="C134" t="s">
         <v>659</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>990</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -5214,11 +5636,14 @@
       <c r="C135" t="s">
         <v>660</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>990</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -5228,11 +5653,14 @@
       <c r="C136" t="s">
         <v>663</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>990</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5242,11 +5670,14 @@
       <c r="C137" t="s">
         <v>659</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>990</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -5256,11 +5687,14 @@
       <c r="C138" t="s">
         <v>657</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>989</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -5270,11 +5704,14 @@
       <c r="C139" t="s">
         <v>663</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>990</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -5284,11 +5721,14 @@
       <c r="C140" t="s">
         <v>659</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>990</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -5298,11 +5738,14 @@
       <c r="C141" t="s">
         <v>663</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>990</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -5312,11 +5755,14 @@
       <c r="C142" t="s">
         <v>659</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>990</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -5326,11 +5772,14 @@
       <c r="C143" t="s">
         <v>652</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>990</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -5340,11 +5789,14 @@
       <c r="C144" t="s">
         <v>663</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>990</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -5354,11 +5806,14 @@
       <c r="C145" t="s">
         <v>667</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>990</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -5368,11 +5823,14 @@
       <c r="C146" t="s">
         <v>655</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>990</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -5382,11 +5840,14 @@
       <c r="C147" t="s">
         <v>668</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>989</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -5396,11 +5857,14 @@
       <c r="C148" t="s">
         <v>663</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>990</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -5410,11 +5874,14 @@
       <c r="C149" t="s">
         <v>659</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>990</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -5424,11 +5891,14 @@
       <c r="C150" t="s">
         <v>659</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>990</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -5438,11 +5908,14 @@
       <c r="C151" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>989</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -5452,11 +5925,14 @@
       <c r="C152" t="s">
         <v>657</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>989</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -5466,11 +5942,14 @@
       <c r="C153" t="s">
         <v>659</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>990</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -5480,11 +5959,14 @@
       <c r="C154" t="s">
         <v>662</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>990</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -5494,11 +5976,14 @@
       <c r="C155" t="s">
         <v>657</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>989</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -5508,11 +5993,14 @@
       <c r="C156" t="s">
         <v>669</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>990</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -5522,11 +6010,14 @@
       <c r="C157" t="s">
         <v>662</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>990</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -5536,11 +6027,14 @@
       <c r="C158" t="s">
         <v>650</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>989</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -5550,11 +6044,14 @@
       <c r="C159" t="s">
         <v>650</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>989</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -5564,11 +6061,14 @@
       <c r="C160" t="s">
         <v>650</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>989</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -5578,11 +6078,14 @@
       <c r="C161" t="s">
         <v>659</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>990</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -5592,11 +6095,14 @@
       <c r="C162" t="s">
         <v>663</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>990</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -5606,11 +6112,14 @@
       <c r="C163" t="s">
         <v>657</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>989</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -5620,11 +6129,14 @@
       <c r="C164" t="s">
         <v>651</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>989</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -5634,11 +6146,14 @@
       <c r="C165" t="s">
         <v>668</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>989</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -5648,11 +6163,14 @@
       <c r="C166" t="s">
         <v>650</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>989</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -5662,11 +6180,14 @@
       <c r="C167" t="s">
         <v>662</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>990</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -5676,11 +6197,14 @@
       <c r="C168" t="s">
         <v>657</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>989</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -5690,11 +6214,14 @@
       <c r="C169" t="s">
         <v>650</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>989</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -5704,11 +6231,14 @@
       <c r="C170" t="s">
         <v>657</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>989</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -5718,11 +6248,14 @@
       <c r="C171" t="s">
         <v>662</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>990</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -5732,11 +6265,14 @@
       <c r="C172" t="s">
         <v>663</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>990</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -5746,11 +6282,14 @@
       <c r="C173" t="s">
         <v>653</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>990</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -5760,11 +6299,14 @@
       <c r="C174" t="s">
         <v>659</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>990</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -5774,11 +6316,14 @@
       <c r="C175" t="s">
         <v>662</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>990</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -5788,11 +6333,14 @@
       <c r="C176" t="s">
         <v>663</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>990</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -5802,11 +6350,14 @@
       <c r="C177" t="s">
         <v>663</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>990</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -5816,11 +6367,14 @@
       <c r="C178" t="s">
         <v>662</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>990</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -5830,11 +6384,14 @@
       <c r="C179" t="s">
         <v>653</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>990</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -5844,11 +6401,14 @@
       <c r="C180" t="s">
         <v>662</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>990</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -5858,11 +6418,14 @@
       <c r="C181" t="s">
         <v>650</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>989</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -5872,11 +6435,14 @@
       <c r="C182" t="s">
         <v>652</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>990</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -5886,11 +6452,14 @@
       <c r="C183" t="s">
         <v>650</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>989</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -5900,11 +6469,14 @@
       <c r="C184" t="s">
         <v>669</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>990</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -5914,11 +6486,14 @@
       <c r="C185" t="s">
         <v>662</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>990</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -5928,11 +6503,14 @@
       <c r="C186" t="s">
         <v>657</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>989</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -5942,11 +6520,14 @@
       <c r="C187" t="s">
         <v>662</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>990</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -5956,11 +6537,14 @@
       <c r="C188" t="s">
         <v>662</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>990</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -5970,11 +6554,14 @@
       <c r="C189" t="s">
         <v>663</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>990</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -5984,11 +6571,14 @@
       <c r="C190" t="s">
         <v>657</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>989</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -5998,11 +6588,14 @@
       <c r="C191" t="s">
         <v>663</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>990</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -6012,11 +6605,14 @@
       <c r="C192" t="s">
         <v>650</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>989</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -6026,11 +6622,14 @@
       <c r="C193" t="s">
         <v>652</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>990</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -6040,11 +6639,14 @@
       <c r="C194" t="s">
         <v>664</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>990</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -6054,11 +6656,14 @@
       <c r="C195" t="s">
         <v>662</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>990</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -6068,11 +6673,14 @@
       <c r="C196" t="s">
         <v>657</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>989</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -6082,11 +6690,14 @@
       <c r="C197" t="s">
         <v>662</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>990</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -6096,11 +6707,14 @@
       <c r="C198" t="s">
         <v>662</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>990</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -6110,11 +6724,14 @@
       <c r="C199" t="s">
         <v>659</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>990</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -6124,11 +6741,14 @@
       <c r="C200" t="s">
         <v>657</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>989</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -6138,11 +6758,14 @@
       <c r="C201" t="s">
         <v>662</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>990</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>402</v>
       </c>
@@ -6152,11 +6775,14 @@
       <c r="C202" t="s">
         <v>662</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>990</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -6166,11 +6792,14 @@
       <c r="C203" t="s">
         <v>667</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>990</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -6180,11 +6809,14 @@
       <c r="C204" t="s">
         <v>668</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>989</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -6194,11 +6826,14 @@
       <c r="C205" t="s">
         <v>663</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>990</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -6208,11 +6843,14 @@
       <c r="C206" t="s">
         <v>657</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>989</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -6222,11 +6860,14 @@
       <c r="C207" t="s">
         <v>662</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>990</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -6236,11 +6877,14 @@
       <c r="C208" t="s">
         <v>670</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>989</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -6250,11 +6894,14 @@
       <c r="C209" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>989</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -6264,11 +6911,14 @@
       <c r="C210" t="s">
         <v>650</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>989</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -6278,11 +6928,14 @@
       <c r="C211" t="s">
         <v>650</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>989</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -6292,11 +6945,14 @@
       <c r="C212" t="s">
         <v>650</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>989</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -6306,11 +6962,14 @@
       <c r="C213" t="s">
         <v>662</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>990</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>426</v>
       </c>
@@ -6320,11 +6979,14 @@
       <c r="C214" t="s">
         <v>671</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>989</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -6334,11 +6996,14 @@
       <c r="C215" t="s">
         <v>659</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>990</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -6348,11 +7013,14 @@
       <c r="C216" t="s">
         <v>667</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>990</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -6362,11 +7030,14 @@
       <c r="C217" t="s">
         <v>650</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>989</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -6376,11 +7047,14 @@
       <c r="C218" t="s">
         <v>650</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>989</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -6390,11 +7064,14 @@
       <c r="C219" t="s">
         <v>652</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>990</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -6404,11 +7081,14 @@
       <c r="C220" t="s">
         <v>650</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>989</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -6418,11 +7098,14 @@
       <c r="C221" t="s">
         <v>650</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>989</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -6432,11 +7115,14 @@
       <c r="C222" t="s">
         <v>660</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>990</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -6446,11 +7132,14 @@
       <c r="C223" t="s">
         <v>662</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>990</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -6460,11 +7149,14 @@
       <c r="C224" t="s">
         <v>659</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>990</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -6474,11 +7166,14 @@
       <c r="C225" t="s">
         <v>668</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>989</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>450</v>
       </c>
@@ -6488,11 +7183,14 @@
       <c r="C226" t="s">
         <v>659</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>990</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -6502,11 +7200,14 @@
       <c r="C227" t="s">
         <v>670</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>989</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -6516,11 +7217,14 @@
       <c r="C228" t="s">
         <v>662</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>990</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -6530,11 +7234,14 @@
       <c r="C229" t="s">
         <v>670</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>989</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>458</v>
       </c>
@@ -6544,11 +7251,14 @@
       <c r="C230" t="s">
         <v>651</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>989</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -6558,11 +7268,14 @@
       <c r="C231" t="s">
         <v>672</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>990</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -6572,11 +7285,14 @@
       <c r="C232" t="s">
         <v>673</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>989</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -6586,11 +7302,14 @@
       <c r="C233" t="s">
         <v>658</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>990</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -6600,11 +7319,14 @@
       <c r="C234" t="s">
         <v>650</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>989</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -6614,11 +7336,14 @@
       <c r="C235" t="s">
         <v>662</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>990</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>470</v>
       </c>
@@ -6628,11 +7353,14 @@
       <c r="C236" t="s">
         <v>661</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>990</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>472</v>
       </c>
@@ -6642,11 +7370,14 @@
       <c r="C237" t="s">
         <v>651</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>989</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>474</v>
       </c>
@@ -6656,11 +7387,14 @@
       <c r="C238" t="s">
         <v>650</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>989</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -6670,11 +7404,14 @@
       <c r="C239" t="s">
         <v>659</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>990</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -6684,11 +7421,14 @@
       <c r="C240" t="s">
         <v>668</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>989</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>480</v>
       </c>
@@ -6698,11 +7438,14 @@
       <c r="C241" t="s">
         <v>662</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>990</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>482</v>
       </c>
@@ -6712,11 +7455,14 @@
       <c r="C242" t="s">
         <v>650</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>989</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -6726,11 +7472,14 @@
       <c r="C243" t="s">
         <v>662</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>990</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>486</v>
       </c>
@@ -6740,11 +7489,14 @@
       <c r="C244" t="s">
         <v>657</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>989</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>488</v>
       </c>
@@ -6754,11 +7506,14 @@
       <c r="C245" t="s">
         <v>650</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>989</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -6768,11 +7523,14 @@
       <c r="C246" t="s">
         <v>650</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>989</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>492</v>
       </c>
@@ -6782,11 +7540,14 @@
       <c r="C247" t="s">
         <v>662</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>990</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -6796,11 +7557,14 @@
       <c r="C248" t="s">
         <v>650</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>989</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -6810,11 +7574,14 @@
       <c r="C249" t="s">
         <v>668</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>989</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>498</v>
       </c>
@@ -6824,11 +7591,14 @@
       <c r="C250" t="s">
         <v>668</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>989</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>500</v>
       </c>
@@ -6838,11 +7608,14 @@
       <c r="C251" t="s">
         <v>665</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>989</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -6852,11 +7625,14 @@
       <c r="C252" t="s">
         <v>662</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>990</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>504</v>
       </c>
@@ -6866,11 +7642,14 @@
       <c r="C253" t="s">
         <v>668</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>989</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>506</v>
       </c>
@@ -6880,11 +7659,14 @@
       <c r="C254" t="s">
         <v>651</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>989</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -6894,11 +7676,14 @@
       <c r="C255" t="s">
         <v>651</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>989</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -6908,11 +7693,14 @@
       <c r="C256" t="s">
         <v>651</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>989</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>512</v>
       </c>
@@ -6922,11 +7710,14 @@
       <c r="C257" t="s">
         <v>657</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>989</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -6936,11 +7727,14 @@
       <c r="C258" t="s">
         <v>672</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>990</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -6950,11 +7744,14 @@
       <c r="C259" t="s">
         <v>657</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>989</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -6964,11 +7761,14 @@
       <c r="C260" t="s">
         <v>665</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>989</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -6978,11 +7778,14 @@
       <c r="C261" t="s">
         <v>671</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>989</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>522</v>
       </c>
@@ -6992,11 +7795,14 @@
       <c r="C262" t="s">
         <v>660</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>990</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>524</v>
       </c>
@@ -7006,11 +7812,14 @@
       <c r="C263" t="s">
         <v>670</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>989</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -7020,11 +7829,14 @@
       <c r="C264" t="s">
         <v>662</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>990</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -7034,11 +7846,14 @@
       <c r="C265" t="s">
         <v>657</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>989</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>530</v>
       </c>
@@ -7048,11 +7863,14 @@
       <c r="C266" t="s">
         <v>662</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>990</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -7062,11 +7880,14 @@
       <c r="C267" t="s">
         <v>671</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>989</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>534</v>
       </c>
@@ -7076,11 +7897,14 @@
       <c r="C268" t="s">
         <v>659</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>990</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>536</v>
       </c>
@@ -7090,11 +7914,14 @@
       <c r="C269" t="s">
         <v>659</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>990</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>538</v>
       </c>
@@ -7104,11 +7931,14 @@
       <c r="C270" t="s">
         <v>651</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>989</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>540</v>
       </c>
@@ -7118,11 +7948,14 @@
       <c r="C271" t="s">
         <v>662</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>990</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -7132,11 +7965,14 @@
       <c r="C272" t="s">
         <v>657</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>989</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -7146,11 +7982,14 @@
       <c r="C273" t="s">
         <v>662</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>990</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -7160,11 +7999,14 @@
       <c r="C274" t="s">
         <v>668</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>989</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -7174,11 +8016,14 @@
       <c r="C275" t="s">
         <v>650</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>989</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -7188,11 +8033,14 @@
       <c r="C276" t="s">
         <v>651</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>989</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -7202,11 +8050,14 @@
       <c r="C277" t="s">
         <v>662</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>990</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -7216,11 +8067,14 @@
       <c r="C278" t="s">
         <v>668</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>989</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -7230,11 +8084,14 @@
       <c r="C279" t="s">
         <v>650</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>989</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -7244,11 +8101,14 @@
       <c r="C280" t="s">
         <v>668</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>989</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -7258,11 +8118,14 @@
       <c r="C281" t="s">
         <v>657</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>989</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -7272,11 +8135,14 @@
       <c r="C282" t="s">
         <v>658</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>990</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -7286,11 +8152,14 @@
       <c r="C283" t="s">
         <v>657</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>989</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -7300,11 +8169,14 @@
       <c r="C284" t="s">
         <v>665</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>989</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -7314,11 +8186,14 @@
       <c r="C285" t="s">
         <v>657</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>989</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -7328,11 +8203,14 @@
       <c r="C286" t="s">
         <v>657</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>989</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -7342,11 +8220,14 @@
       <c r="C287" t="s">
         <v>670</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>989</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -7356,11 +8237,14 @@
       <c r="C288" t="s">
         <v>662</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>990</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -7370,11 +8254,14 @@
       <c r="C289" t="s">
         <v>662</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>990</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>578</v>
       </c>
@@ -7384,11 +8271,14 @@
       <c r="C290" t="s">
         <v>650</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>989</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>580</v>
       </c>
@@ -7398,11 +8288,14 @@
       <c r="C291" t="s">
         <v>662</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>990</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>582</v>
       </c>
@@ -7412,11 +8305,14 @@
       <c r="C292" t="s">
         <v>651</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>989</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>584</v>
       </c>
@@ -7426,11 +8322,14 @@
       <c r="C293" t="s">
         <v>668</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>989</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -7440,11 +8339,14 @@
       <c r="C294" t="s">
         <v>660</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>990</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>588</v>
       </c>
@@ -7454,11 +8356,14 @@
       <c r="C295" t="s">
         <v>657</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>989</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>590</v>
       </c>
@@ -7468,11 +8373,14 @@
       <c r="C296" t="s">
         <v>668</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>989</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>592</v>
       </c>
@@ -7482,11 +8390,14 @@
       <c r="C297" t="s">
         <v>650</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>989</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>594</v>
       </c>
@@ -7496,11 +8407,14 @@
       <c r="C298" t="s">
         <v>670</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>989</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>596</v>
       </c>
@@ -7510,11 +8424,14 @@
       <c r="C299" t="s">
         <v>673</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>989</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>598</v>
       </c>
@@ -7524,11 +8441,14 @@
       <c r="C300" t="s">
         <v>662</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>990</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -7538,11 +8458,14 @@
       <c r="C301" t="s">
         <v>670</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>989</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>602</v>
       </c>
@@ -7552,11 +8475,14 @@
       <c r="C302" t="s">
         <v>670</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>989</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -7566,11 +8492,14 @@
       <c r="C303" t="s">
         <v>650</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>989</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>606</v>
       </c>
@@ -7580,11 +8509,14 @@
       <c r="C304" t="s">
         <v>650</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>989</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>608</v>
       </c>
@@ -7594,11 +8526,14 @@
       <c r="C305" t="s">
         <v>657</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>989</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -7608,11 +8543,14 @@
       <c r="C306" t="s">
         <v>657</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>989</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -7622,11 +8560,14 @@
       <c r="C307" t="s">
         <v>650</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>989</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>614</v>
       </c>
@@ -7636,11 +8577,14 @@
       <c r="C308" t="s">
         <v>662</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>990</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -7650,11 +8594,14 @@
       <c r="C309" t="s">
         <v>657</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>989</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>618</v>
       </c>
@@ -7664,11 +8611,14 @@
       <c r="C310" t="s">
         <v>670</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>989</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>620</v>
       </c>
@@ -7678,11 +8628,14 @@
       <c r="C311" t="s">
         <v>668</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>989</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>622</v>
       </c>
@@ -7692,11 +8645,14 @@
       <c r="C312" t="s">
         <v>668</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>989</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>624</v>
       </c>
@@ -7706,11 +8662,14 @@
       <c r="C313" t="s">
         <v>650</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>989</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>626</v>
       </c>
@@ -7720,11 +8679,14 @@
       <c r="C314" t="s">
         <v>673</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>989</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>628</v>
       </c>
@@ -7734,11 +8696,14 @@
       <c r="C315" t="s">
         <v>657</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>989</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -7748,11 +8713,14 @@
       <c r="C316" t="s">
         <v>668</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>989</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>632</v>
       </c>
@@ -7762,11 +8730,14 @@
       <c r="C317" t="s">
         <v>668</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>989</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>634</v>
       </c>
@@ -7776,11 +8747,14 @@
       <c r="C318" t="s">
         <v>668</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>989</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>636</v>
       </c>
@@ -7790,11 +8764,14 @@
       <c r="C319" t="s">
         <v>668</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>989</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>638</v>
       </c>
@@ -7804,11 +8781,14 @@
       <c r="C320" t="s">
         <v>668</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>989</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>640</v>
       </c>
@@ -7818,11 +8798,14 @@
       <c r="C321" t="s">
         <v>668</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>989</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>642</v>
       </c>
@@ -7832,11 +8815,14 @@
       <c r="C322" t="s">
         <v>668</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>989</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>644</v>
       </c>
@@ -7846,11 +8832,14 @@
       <c r="C323" t="s">
         <v>668</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>989</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>646</v>
       </c>
@@ -7860,11 +8849,14 @@
       <c r="C324" t="s">
         <v>668</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>989</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>648</v>
       </c>
@@ -7874,8 +8866,11 @@
       <c r="C325" t="s">
         <v>668</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>988</v>
+      <c r="D325" t="s">
+        <v>989</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/YouTubeAnalysis/VideoInfo.xlsx
+++ b/Apps/YouTubeAnalysis/VideoInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabApplications\Apps\YouTubeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18F113-65E9-4C81-954A-08EA7DC1C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB7C45D-70F0-4F38-A762-BEE0C7D25D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2340" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="1122">
   <si>
     <t>Content</t>
   </si>
@@ -3015,6 +3015,396 @@
   </si>
   <si>
     <t>Classification2</t>
+  </si>
+  <si>
+    <t>eIv8muz9Hsk</t>
+  </si>
+  <si>
+    <t>Row/Column Space, Linear Independence, and Rank of a Matrix</t>
+  </si>
+  <si>
+    <t>haJVEtLN6-k</t>
+  </si>
+  <si>
+    <t>Scalar  Functions, Vector Functions, and Vector Derivatives</t>
+  </si>
+  <si>
+    <t>MPcfaNIREN0</t>
+  </si>
+  <si>
+    <t>Parameterizing Curves</t>
+  </si>
+  <si>
+    <t>HH367um_Aho</t>
+  </si>
+  <si>
+    <t>Tangent to a Curve</t>
+  </si>
+  <si>
+    <t>FoiuvPkFppg</t>
+  </si>
+  <si>
+    <t>Arc Length (AKA Length of a Curve)</t>
+  </si>
+  <si>
+    <t>obeu4B8mXuw</t>
+  </si>
+  <si>
+    <t>Gradient of a Function and the Directional Derivative</t>
+  </si>
+  <si>
+    <t>7GXbPYzW5JA</t>
+  </si>
+  <si>
+    <t>Fourier Series</t>
+  </si>
+  <si>
+    <t>W30U_rcThLg</t>
+  </si>
+  <si>
+    <t>Discrete Fourier Transform</t>
+  </si>
+  <si>
+    <t>yfsSDynscEs</t>
+  </si>
+  <si>
+    <t>Fast Fourier Transform</t>
+  </si>
+  <si>
+    <t>bKwfnulkt2U</t>
+  </si>
+  <si>
+    <t>Replace Microsoft Surface Pen Battery</t>
+  </si>
+  <si>
+    <t>5ROS2-4ShmI</t>
+  </si>
+  <si>
+    <t>Obtaining and Using the MatlabLum Repository</t>
+  </si>
+  <si>
+    <t>NS2FI6vR3BY</t>
+  </si>
+  <si>
+    <t>The MNIST Database</t>
+  </si>
+  <si>
+    <t>eF0Zv-GPzH0</t>
+  </si>
+  <si>
+    <t>Planet Bike Superflash 65R Bike Tail Light</t>
+  </si>
+  <si>
+    <t>k-mli8-04RQ</t>
+  </si>
+  <si>
+    <t>Time to Double for a First and Second Order System</t>
+  </si>
+  <si>
+    <t>b1uIEnjqcZM</t>
+  </si>
+  <si>
+    <t>How to Replace a Dryer Thermal Fuse</t>
+  </si>
+  <si>
+    <t>UkM1h7-URo8</t>
+  </si>
+  <si>
+    <t>Demolish Concrete Using Only a Sledgehammer</t>
+  </si>
+  <si>
+    <t>AOR2u3dwUNM</t>
+  </si>
+  <si>
+    <t>How to Wash and Dry a Down Jacket</t>
+  </si>
+  <si>
+    <t>nZ6LcTjtCbs</t>
+  </si>
+  <si>
+    <t>Monitor Wonâ€™t Turn On â€“ Solved!</t>
+  </si>
+  <si>
+    <t>XO8KvIoCNbE</t>
+  </si>
+  <si>
+    <t>Dimensionless Aerodynamic Coefficients</t>
+  </si>
+  <si>
+    <t>c3bRUDvLTS4</t>
+  </si>
+  <si>
+    <t>How to Remove the Cap on a Swiffer Wet Jet Bottle</t>
+  </si>
+  <si>
+    <t>QexBVGVM690</t>
+  </si>
+  <si>
+    <t>The Jacobian Matrix</t>
+  </si>
+  <si>
+    <t>TULEFpfUmEQ</t>
+  </si>
+  <si>
+    <t>How to Repair the Durable Water Repellent (DWR) Finish on Your Rain Jacket</t>
+  </si>
+  <si>
+    <t>PF_WTo-uLvg</t>
+  </si>
+  <si>
+    <t>DIY Knife Sharpness Tester</t>
+  </si>
+  <si>
+    <t>fJMZkE6UxiI</t>
+  </si>
+  <si>
+    <t>How to Remove the Brake Cable on an Electric Scooter</t>
+  </si>
+  <si>
+    <t>tYkIt16bggw</t>
+  </si>
+  <si>
+    <t>Importing Table Data Into Matlab Using â€˜readtableâ€™</t>
+  </si>
+  <si>
+    <t>9gRTenEbwSk</t>
+  </si>
+  <si>
+    <t>Chefâ€™s Choice Model 15XV Electric Knife Sharpener: a Review with Quantitative Data</t>
+  </si>
+  <si>
+    <t>XZt1YLVy6XU</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week02</t>
+  </si>
+  <si>
+    <t>NI70-AWnO4w</t>
+  </si>
+  <si>
+    <t>Direction Cosine Matrix from North East Down to East North Up</t>
+  </si>
+  <si>
+    <t>iaM-jMmAp6c</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week03</t>
+  </si>
+  <si>
+    <t>WDMTaNsgYVo</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week04</t>
+  </si>
+  <si>
+    <t>AlTYdT7kF38</t>
+  </si>
+  <si>
+    <t>Find the Radius of the Circle Inside the Triangle</t>
+  </si>
+  <si>
+    <t>js0jPF_h0wM</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -FQzeD9gsS0</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week06</t>
+  </si>
+  <si>
+    <t>bJlryGNGDrw</t>
+  </si>
+  <si>
+    <t>MathWorks Free Stuff</t>
+  </si>
+  <si>
+    <t>aDWz_hbNYzM</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week07</t>
+  </si>
+  <si>
+    <t>EGmKPpV6bXs</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week08</t>
+  </si>
+  <si>
+    <t>JZNORkEnB5c</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week09</t>
+  </si>
+  <si>
+    <t>Z5sWyYpLbnQ</t>
+  </si>
+  <si>
+    <t>AA516/AE512 Week10</t>
+  </si>
+  <si>
+    <t>n2bvoNsyhcE</t>
+  </si>
+  <si>
+    <t>REI Down Time 25 Sleeping Bag</t>
+  </si>
+  <si>
+    <t>GLTenrOMBz8</t>
+  </si>
+  <si>
+    <t>Replace the Line on a DeWalt String Trimmer</t>
+  </si>
+  <si>
+    <t>w4mIw3kSTVU</t>
+  </si>
+  <si>
+    <t>Fuel Leaking from Motorcycle â€“ Solved!</t>
+  </si>
+  <si>
+    <t>x6qkmxxMKEw</t>
+  </si>
+  <si>
+    <t>Commenting Code in Matlab and Simulink (Ways You Can Use â€˜%â€™)</t>
+  </si>
+  <si>
+    <t>m46opXldvEA</t>
+  </si>
+  <si>
+    <t>Disassemble the Headset and Top Tube on an Electric Scooter (GoTrax Eclipse)</t>
+  </si>
+  <si>
+    <t>NF71HPAB2W0</t>
+  </si>
+  <si>
+    <t>Default Arguments in Matlab Functions (varargin and nargin)</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>5:31</t>
+  </si>
+  <si>
+    <t>29:50</t>
+  </si>
+  <si>
+    <t>5:45</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>9:29</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>6:44</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>9:10</t>
+  </si>
+  <si>
+    <t>9:01</t>
+  </si>
+  <si>
+    <t>16:33</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>30:19</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>8:45</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>40:21</t>
+  </si>
+  <si>
+    <t>4:06</t>
+  </si>
+  <si>
+    <t>19:23</t>
+  </si>
+  <si>
+    <t>5:49</t>
+  </si>
+  <si>
+    <t>4:23</t>
+  </si>
+  <si>
+    <t>9:08</t>
+  </si>
+  <si>
+    <t>40:41</t>
+  </si>
+  <si>
+    <t>7:26</t>
+  </si>
+  <si>
+    <t>20:27</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>2:40</t>
+  </si>
+  <si>
+    <t>48:22</t>
+  </si>
+  <si>
+    <t>1:22:07</t>
+  </si>
+  <si>
+    <t>48:13</t>
+  </si>
+  <si>
+    <t>26:57</t>
+  </si>
+  <si>
+    <t>25:40</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>22:54</t>
+  </si>
+  <si>
+    <t>38:58</t>
+  </si>
+  <si>
+    <t>AxgzzJposVo</t>
+  </si>
+  <si>
+    <t>Elementary Row Operations, Row Echelon Form, and Reduced Row Echelon Form</t>
+  </si>
+  <si>
+    <t>53:48</t>
   </si>
 </sst>
 </file>
@@ -3333,11 +3723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8873,6 +9263,771 @@
         <v>987</v>
       </c>
     </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C326" t="s">
+        <v>662</v>
+      </c>
+      <c r="D326" t="s">
+        <v>990</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>992</v>
+      </c>
+      <c r="B327" t="s">
+        <v>993</v>
+      </c>
+      <c r="C327" t="s">
+        <v>662</v>
+      </c>
+      <c r="D327" t="s">
+        <v>990</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>994</v>
+      </c>
+      <c r="B328" t="s">
+        <v>995</v>
+      </c>
+      <c r="C328" t="s">
+        <v>662</v>
+      </c>
+      <c r="D328" t="s">
+        <v>990</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>996</v>
+      </c>
+      <c r="B329" t="s">
+        <v>997</v>
+      </c>
+      <c r="C329" t="s">
+        <v>662</v>
+      </c>
+      <c r="D329" t="s">
+        <v>990</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>998</v>
+      </c>
+      <c r="B330" t="s">
+        <v>999</v>
+      </c>
+      <c r="C330" t="s">
+        <v>662</v>
+      </c>
+      <c r="D330" t="s">
+        <v>990</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C331" t="s">
+        <v>662</v>
+      </c>
+      <c r="D331" t="s">
+        <v>990</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C332" t="s">
+        <v>662</v>
+      </c>
+      <c r="D332" t="s">
+        <v>990</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C333" t="s">
+        <v>662</v>
+      </c>
+      <c r="D333" t="s">
+        <v>990</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C334" t="s">
+        <v>662</v>
+      </c>
+      <c r="D334" t="s">
+        <v>990</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C335" t="s">
+        <v>662</v>
+      </c>
+      <c r="D335" t="s">
+        <v>990</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C336" t="s">
+        <v>650</v>
+      </c>
+      <c r="D336" t="s">
+        <v>989</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C337" t="s">
+        <v>652</v>
+      </c>
+      <c r="D337" t="s">
+        <v>990</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C338" t="s">
+        <v>672</v>
+      </c>
+      <c r="D338" t="s">
+        <v>990</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C339" t="s">
+        <v>657</v>
+      </c>
+      <c r="D339" t="s">
+        <v>989</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C340" t="s">
+        <v>659</v>
+      </c>
+      <c r="D340" t="s">
+        <v>990</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C341" t="s">
+        <v>650</v>
+      </c>
+      <c r="D341" t="s">
+        <v>989</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C342" t="s">
+        <v>650</v>
+      </c>
+      <c r="D342" t="s">
+        <v>989</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C343" t="s">
+        <v>650</v>
+      </c>
+      <c r="D343" t="s">
+        <v>989</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C344" t="s">
+        <v>650</v>
+      </c>
+      <c r="D344" t="s">
+        <v>989</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C345" t="s">
+        <v>663</v>
+      </c>
+      <c r="D345" t="s">
+        <v>990</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C346" t="s">
+        <v>650</v>
+      </c>
+      <c r="D346" t="s">
+        <v>989</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C347" t="s">
+        <v>662</v>
+      </c>
+      <c r="D347" t="s">
+        <v>990</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C348" t="s">
+        <v>650</v>
+      </c>
+      <c r="D348" t="s">
+        <v>989</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C349" t="s">
+        <v>650</v>
+      </c>
+      <c r="D349" t="s">
+        <v>989</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C350" t="s">
+        <v>650</v>
+      </c>
+      <c r="D350" t="s">
+        <v>989</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C351" t="s">
+        <v>652</v>
+      </c>
+      <c r="D351" t="s">
+        <v>990</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C352" t="s">
+        <v>657</v>
+      </c>
+      <c r="D352" t="s">
+        <v>989</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C353" t="s">
+        <v>663</v>
+      </c>
+      <c r="D353" t="s">
+        <v>990</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C354" t="s">
+        <v>663</v>
+      </c>
+      <c r="D354" t="s">
+        <v>990</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C355" t="s">
+        <v>663</v>
+      </c>
+      <c r="D355" t="s">
+        <v>990</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C356" t="s">
+        <v>663</v>
+      </c>
+      <c r="D356" t="s">
+        <v>990</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C357" t="s">
+        <v>663</v>
+      </c>
+      <c r="D357" t="s">
+        <v>990</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C358" t="s">
+        <v>663</v>
+      </c>
+      <c r="D358" t="s">
+        <v>990</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C359" t="s">
+        <v>663</v>
+      </c>
+      <c r="D359" t="s">
+        <v>990</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C360" t="s">
+        <v>652</v>
+      </c>
+      <c r="D360" t="s">
+        <v>989</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C361" t="s">
+        <v>663</v>
+      </c>
+      <c r="D361" t="s">
+        <v>990</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C362" t="s">
+        <v>663</v>
+      </c>
+      <c r="D362" t="s">
+        <v>990</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C363" t="s">
+        <v>663</v>
+      </c>
+      <c r="D363" t="s">
+        <v>990</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C364" t="s">
+        <v>663</v>
+      </c>
+      <c r="D364" t="s">
+        <v>990</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C365" t="s">
+        <v>657</v>
+      </c>
+      <c r="D365" t="s">
+        <v>989</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C366" t="s">
+        <v>650</v>
+      </c>
+      <c r="D366" t="s">
+        <v>989</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C367" t="s">
+        <v>650</v>
+      </c>
+      <c r="D367" t="s">
+        <v>989</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C368" t="s">
+        <v>652</v>
+      </c>
+      <c r="D368" t="s">
+        <v>990</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C369" t="s">
+        <v>650</v>
+      </c>
+      <c r="D369" t="s">
+        <v>989</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C370" t="s">
+        <v>652</v>
+      </c>
+      <c r="D370" t="s">
+        <v>990</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C325" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
